--- a/opensource/data.xlsx
+++ b/opensource/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\opensource\opensource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188AEA6C-EE6A-4678-8AD9-838CE0992B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D943790-38DC-42F1-8C0D-719CBFDC8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -338,13 +335,17 @@
   </si>
   <si>
     <t>基于PX4、ROS和Gazebo的无人机通用仿真平台</t>
+  </si>
+  <si>
+    <t>stars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +365,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,9 +409,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -710,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -720,476 +731,476 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>7900</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>5500</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4300</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4100</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>4000</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3400</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>3300</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>3300</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>3200</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2300</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2200</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>2100</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>2000</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>1700</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>1600</v>
       </c>
       <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>1600</v>
       </c>
       <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>1600</v>
       </c>
       <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1500</v>
       </c>
       <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1400</v>
       </c>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1300</v>
       </c>
       <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>1300</v>
       </c>
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1200</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>1200</v>
       </c>
       <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>1200</v>
       </c>
       <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>1100</v>
       </c>
       <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
         <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>1100</v>
       </c>
       <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>1100</v>
       </c>
       <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>1100</v>
       </c>
       <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>1000</v>
       </c>
       <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>1000</v>
       </c>
       <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
